--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_VNPTKhanhHoa_NguyenThanhTruc.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_VNPTKhanhHoa_NguyenThanhTruc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="37" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>ID: 20170605410333.</t>
-  </si>
-  <si>
     <t>RFID</t>
   </si>
   <si>
@@ -250,6 +247,36 @@
   </si>
   <si>
     <t>VNPT Khánh Hòa - Nguyễn Thị Trúc</t>
+  </si>
+  <si>
+    <t>123.027.253.201,35033</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>ID: 20170605410333. , sim lỗi</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên reset</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Test lại phụ kiện</t>
   </si>
 </sst>
 </file>
@@ -664,6 +691,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,32 +730,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="82"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1129,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1205,23 +1232,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1258,9 @@
       <c r="B6" s="65">
         <v>44600</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44600</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>61</v>
       </c>
@@ -1245,21 +1274,39 @@
         <v>62</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1290,7 +1337,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1366,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1395,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +1424,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1453,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1482,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1466,7 +1513,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1542,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1524,7 +1571,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1600,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1719,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2141,7 +2188,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2205,7 +2252,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2784,6 +2831,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2795,13 +2849,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2812,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2845,43 +2892,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="82"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2926,58 +2973,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -3002,23 +3049,23 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,12 +3075,14 @@
       <c r="B6" s="65">
         <v>44600</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44600</v>
+      </c>
       <c r="D6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -3041,18 +3090,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3083,7 +3144,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3112,7 +3173,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +3202,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3170,7 +3231,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3199,7 +3260,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3228,7 +3289,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3259,7 +3320,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3349,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3317,7 +3378,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3407,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3465,7 +3526,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3966,7 +4027,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -3998,7 +4059,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4577,13 +4638,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4595,6 +4649,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4605,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4638,43 +4699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="82"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4719,58 +4780,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -4795,23 +4856,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4821,12 +4882,14 @@
       <c r="B6" s="65">
         <v>44600</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44600</v>
+      </c>
       <c r="D6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -4837,15 +4900,21 @@
       <c r="J6" s="1"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4876,7 +4945,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4905,7 +4974,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4934,7 +5003,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4963,7 +5032,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +5061,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5021,7 +5090,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5052,7 +5121,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5081,7 +5150,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5110,7 +5179,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5139,7 +5208,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6370,6 +6439,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6381,13 +6457,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6398,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6431,43 +6500,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="82"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6512,58 +6581,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6588,23 +6657,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6630,7 +6699,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6661,7 +6730,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6690,7 +6759,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6719,7 +6788,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6748,7 +6817,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6777,7 +6846,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6806,7 +6875,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6837,7 +6906,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6866,7 +6935,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6895,7 +6964,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6924,7 +6993,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8155,6 +8224,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8166,13 +8242,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
